--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>510774.886950018</v>
+        <v>508192.8375562978</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>234.7307440596765</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>330.4671894934487</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504415</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.193136620960843</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>170.8664343320285</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>41.00615447525471</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>92.72527642571212</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>59.47290302489178</v>
       </c>
       <c r="E5" t="n">
-        <v>299.3298903607669</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186934</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>23.97581040859478</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>241.3110819972007</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>71.22020627131369</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>305.6545836601265</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1309,7 +1309,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>78.6797815855692</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
@@ -1345,16 +1345,16 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>106.3726578446315</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986293</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="E13" t="n">
-        <v>6.434538210424702</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,10 +1667,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986293</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.24347904696186</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756226</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.522998336592</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>104.6857048437762</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U22" t="n">
-        <v>25.7319404949716</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>20.38427178198018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>93.07916359105414</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>97.0262957429552</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>106.9094576655908</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>94.30373791808189</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>9.795251606876045</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,19 +3241,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>227.3641166063642</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>83.29550035394</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>81.29683349370501</v>
       </c>
     </row>
     <row r="38">
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>47.88058113793241</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>173.1378795275017</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>107.5419779170877</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1225.50726214167</v>
+        <v>1589.285914227654</v>
       </c>
       <c r="C2" t="n">
-        <v>1225.50726214167</v>
+        <v>1255.480672315079</v>
       </c>
       <c r="D2" t="n">
-        <v>867.241563534919</v>
+        <v>1255.480672315079</v>
       </c>
       <c r="E2" t="n">
-        <v>481.4533109366748</v>
+        <v>869.6924197168348</v>
       </c>
       <c r="F2" t="n">
-        <v>70.46740614706719</v>
+        <v>458.7065149272273</v>
       </c>
       <c r="G2" t="n">
-        <v>58.05554887934583</v>
+        <v>458.7065149272273</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073764</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0043429178249</v>
+        <v>644.3837423617508</v>
       </c>
       <c r="L2" t="n">
-        <v>1013.627124136017</v>
+        <v>882.0065235799409</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.69769069362</v>
+        <v>1178.077090137542</v>
       </c>
       <c r="N2" t="n">
-        <v>1615.172796929205</v>
+        <v>1483.552196373125</v>
       </c>
       <c r="O2" t="n">
-        <v>1968.86025644306</v>
+        <v>1758.668415689757</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821931</v>
+        <v>2277.553464068627</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4358,22 +4358,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.334033584003</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>2124.334033584003</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W2" t="n">
-        <v>1771.565378313889</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="X2" t="n">
-        <v>1398.09962005281</v>
+        <v>2216.527007879906</v>
       </c>
       <c r="Y2" t="n">
-        <v>1225.50726214167</v>
+        <v>1826.387675904095</v>
       </c>
     </row>
     <row r="3">
@@ -4389,55 +4389,55 @@
         <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884146</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093843</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>871.9454821673514</v>
+        <v>794.7800573025152</v>
       </c>
       <c r="M3" t="n">
-        <v>1512.968691787245</v>
+        <v>1304.992176928761</v>
       </c>
       <c r="N3" t="n">
-        <v>1798.302562220579</v>
+        <v>1590.326047362092</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972038</v>
+        <v>1829.130999113549</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
         <v>2023.106809259863</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.9700349227761</v>
+        <v>518.7657712454554</v>
       </c>
       <c r="C4" t="n">
-        <v>542.9700349227761</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D4" t="n">
-        <v>392.8533955104404</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E4" t="n">
-        <v>244.9403019280472</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>244.9403019280472</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>203.5199438722344</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
         <v>51.79985532281972</v>
@@ -4486,52 +4486,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018416</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="T4" t="n">
-        <v>1086.791150136561</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="U4" t="n">
-        <v>797.654523128663</v>
+        <v>1022.06568235322</v>
       </c>
       <c r="V4" t="n">
-        <v>542.9700349227761</v>
+        <v>928.4037869737125</v>
       </c>
       <c r="W4" t="n">
-        <v>542.9700349227761</v>
+        <v>928.4037869737125</v>
       </c>
       <c r="X4" t="n">
-        <v>542.9700349227761</v>
+        <v>700.4142360756952</v>
       </c>
       <c r="Y4" t="n">
-        <v>542.9700349227761</v>
+        <v>700.4142360756952</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1146.0956252021</v>
+        <v>1676.818760995163</v>
       </c>
       <c r="C5" t="n">
-        <v>1146.0956252021</v>
+        <v>1307.856244054751</v>
       </c>
       <c r="D5" t="n">
-        <v>1146.0956252021</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="E5" t="n">
-        <v>843.7422005952644</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F5" t="n">
-        <v>432.7562958056569</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
         <v>421.1148580461929</v>
@@ -4568,10 +4568,10 @@
         <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
@@ -4595,22 +4595,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V5" t="n">
-        <v>2258.929878797415</v>
+        <v>2050.284519256243</v>
       </c>
       <c r="W5" t="n">
-        <v>1906.161223527301</v>
+        <v>2050.284519256243</v>
       </c>
       <c r="X5" t="n">
-        <v>1532.695465266221</v>
+        <v>1676.818760995163</v>
       </c>
       <c r="Y5" t="n">
-        <v>1532.695465266221</v>
+        <v>1676.818760995163</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4650,16 @@
         <v>301.946747225829</v>
       </c>
       <c r="L6" t="n">
-        <v>942.969956845723</v>
+        <v>788.8134803644004</v>
       </c>
       <c r="M6" t="n">
-        <v>1309.275846338048</v>
+        <v>1155.119369856726</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136006</v>
+        <v>1545.528931182469</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P6" t="n">
         <v>2445.212480716556</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625.0145430021564</v>
+        <v>789.0613887893438</v>
       </c>
       <c r="C7" t="n">
-        <v>625.0145430021564</v>
+        <v>620.1252058614369</v>
       </c>
       <c r="D7" t="n">
-        <v>625.0145430021564</v>
+        <v>620.1252058614369</v>
       </c>
       <c r="E7" t="n">
-        <v>477.1014494197633</v>
+        <v>472.2121122790438</v>
       </c>
       <c r="F7" t="n">
-        <v>330.2115019218529</v>
+        <v>325.3221647811335</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
         <v>157.3459760430229</v>
@@ -4753,22 +4753,22 @@
         <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1544.862307910904</v>
+        <v>1321.927733452886</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.862307910904</v>
+        <v>1032.809956463284</v>
       </c>
       <c r="V7" t="n">
-        <v>1544.862307910904</v>
+        <v>1032.809956463284</v>
       </c>
       <c r="W7" t="n">
-        <v>1255.445137873944</v>
+        <v>789.0613887893438</v>
       </c>
       <c r="X7" t="n">
-        <v>1027.455586975926</v>
+        <v>789.0613887893438</v>
       </c>
       <c r="Y7" t="n">
-        <v>806.6630078323961</v>
+        <v>789.0613887893438</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1384.860191296135</v>
+        <v>1491.034138183595</v>
       </c>
       <c r="C8" t="n">
-        <v>1015.897674355723</v>
+        <v>1491.034138183595</v>
       </c>
       <c r="D8" t="n">
-        <v>943.9580720614667</v>
+        <v>1491.034138183595</v>
       </c>
       <c r="E8" t="n">
-        <v>943.9580720614667</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718591</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719911</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
         <v>447.8319447135512</v>
@@ -4811,7 +4811,7 @@
         <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2127.76817854206</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V8" t="n">
-        <v>2127.76817854206</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="W8" t="n">
-        <v>1774.999523271946</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="X8" t="n">
-        <v>1774.999523271946</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1384.860191296135</v>
+        <v>1491.034138183595</v>
       </c>
     </row>
     <row r="9">
@@ -4866,37 +4866,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>301.946747225829</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421438</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344694</v>
+        <v>1164.302981905902</v>
       </c>
       <c r="N9" t="n">
-        <v>1606.587795454363</v>
+        <v>1554.712543231644</v>
       </c>
       <c r="O9" t="n">
-        <v>1941.516476169895</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.360484472331</v>
+        <v>604.0232446048699</v>
       </c>
       <c r="C10" t="n">
-        <v>348.360484472331</v>
+        <v>604.0232446048699</v>
       </c>
       <c r="D10" t="n">
-        <v>348.360484472331</v>
+        <v>453.9066051925341</v>
       </c>
       <c r="E10" t="n">
-        <v>200.4473908899379</v>
+        <v>305.993511610141</v>
       </c>
       <c r="F10" t="n">
-        <v>200.4473908899379</v>
+        <v>305.993511610141</v>
       </c>
       <c r="G10" t="n">
-        <v>200.4473908899379</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1567.509143299768</v>
       </c>
       <c r="S10" t="n">
-        <v>1450.534004159847</v>
+        <v>1371.059477305736</v>
       </c>
       <c r="T10" t="n">
-        <v>1227.599429701828</v>
+        <v>1148.124902847718</v>
       </c>
       <c r="U10" t="n">
-        <v>938.4816527122266</v>
+        <v>1148.124902847718</v>
       </c>
       <c r="V10" t="n">
-        <v>683.7971645063398</v>
+        <v>893.4404146418306</v>
       </c>
       <c r="W10" t="n">
-        <v>576.3500353703483</v>
+        <v>604.0232446048699</v>
       </c>
       <c r="X10" t="n">
-        <v>348.360484472331</v>
+        <v>604.0232446048699</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.360484472331</v>
+        <v>604.0232446048699</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892216</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>414.4022433768858</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5315,7 +5315,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132773</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536397</v>
+        <v>763.7541388327634</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>763.7541388327634</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>613.6374994204276</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>465.7244058380345</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>318.8344583401241</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>151.6383590550041</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524076</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868274</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662387</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625427</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727409</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583879</v>
+        <v>945.4026036630031</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5589,19 +5589,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
         <v>1344.266747951538</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.052681478294</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038326</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235163</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258104</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>2018.514925172274</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5981,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>943.5102657467545</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>702.4944101284095</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C28" t="n">
-        <v>533.5582272005026</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D28" t="n">
-        <v>383.4415877881669</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2166.101889898846</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1877.026663243044</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.342175037157</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1332.925005000197</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1104.935454102179</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>884.1428749586493</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D31" t="n">
-        <v>483.8760050556308</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E31" t="n">
-        <v>335.9629114732377</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>189.0729639753273</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>189.0729639753273</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1337.934786622704</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>103.7108565902709</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1814.846060413294</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1560.161572207407</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>808.8888553856862</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C37" t="n">
-        <v>639.9526724577793</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7135,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>990.5373202159259</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7448,10 +7448,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>139.234765840794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>835.5837926935558</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>666.6476097656489</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>516.5309703533131</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565343</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1238.024836667326</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1017.232257523796</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>191.1953109993754</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>79.36488908810099</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>77.94487360084145</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>380.892604166067</v>
+        <v>248.7601900310702</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8298,19 +8298,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>347.1830914177568</v>
+        <v>191.4694788103603</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>162.7491560325408</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>200.7458546176088</v>
       </c>
       <c r="N9" t="n">
-        <v>253.1450992870218</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>309.1863928326898</v>
       </c>
       <c r="P9" t="n">
-        <v>256.7871481632756</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906576</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34.80570227755886</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>302.4043088285504</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>125.6324002075526</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>12.04875628922446</v>
       </c>
       <c r="E13" t="n">
-        <v>139.9994244361445</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.05123379926204</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516657</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>62.56111625485168</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U22" t="n">
-        <v>260.4525338942726</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>265.8002026072639</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>120.3791545843331</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>39.52450498097839</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>45.99097492814199</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25129,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>58.82035778287997</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.31997266427236</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>45.44677382459307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>38.89198472948146</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>985417.3020093695</v>
+        <v>985417.3020093697</v>
       </c>
     </row>
     <row r="3">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.09686312</v>
+        <v>354580.0968631199</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855348</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855349</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="E2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="F2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="G2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="H2" t="n">
         <v>383394.6348527529</v>
-      </c>
-      <c r="F2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="G2" t="n">
-        <v>383394.6348527527</v>
-      </c>
-      <c r="H2" t="n">
-        <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
         <v>383394.634852753</v>
@@ -26338,10 +26338,10 @@
         <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="M2" t="n">
         <v>383394.6348527528</v>
@@ -26353,7 +26353,7 @@
         <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527527</v>
       </c>
     </row>
     <row r="3">
@@ -26363,31 +26363,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753987</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898926</v>
+        <v>172764.3597898954</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457505</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260479</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117230.9551024948</v>
+        <v>117230.9551024952</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695058</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695085</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695064</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791678.8690117644</v>
+        <v>-791865.2624003008</v>
       </c>
       <c r="C6" t="n">
-        <v>-5317.36319111535</v>
+        <v>-5317.363191118187</v>
       </c>
       <c r="D6" t="n">
-        <v>167446.9965987773</v>
+        <v>167446.9965987775</v>
       </c>
       <c r="E6" t="n">
-        <v>-224904.2432485997</v>
+        <v>-224938.981174036</v>
       </c>
       <c r="F6" t="n">
-        <v>275984.6244971506</v>
+        <v>275949.8865717154</v>
       </c>
       <c r="G6" t="n">
-        <v>275984.6244971505</v>
+        <v>275949.8865717149</v>
       </c>
       <c r="H6" t="n">
-        <v>275984.6244971508</v>
+        <v>275949.886571715</v>
       </c>
       <c r="I6" t="n">
-        <v>275984.6244971507</v>
+        <v>275949.8865717151</v>
       </c>
       <c r="J6" t="n">
-        <v>106570.6076711029</v>
+        <v>106535.869745667</v>
       </c>
       <c r="K6" t="n">
-        <v>275984.6244971506</v>
+        <v>275949.886571715</v>
       </c>
       <c r="L6" t="n">
-        <v>275984.6244971506</v>
+        <v>275949.886571715</v>
       </c>
       <c r="M6" t="n">
-        <v>145100.1675929154</v>
+        <v>145065.4296674796</v>
       </c>
       <c r="N6" t="n">
-        <v>275984.6244971507</v>
+        <v>275949.8865717149</v>
       </c>
       <c r="O6" t="n">
-        <v>275984.6244971508</v>
+        <v>275949.8865717151</v>
       </c>
       <c r="P6" t="n">
-        <v>275984.6244971508</v>
+        <v>275949.8865717148</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498448</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152234</v>
+        <v>189.7254341522371</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918289</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>148.0030976038041</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>215.371504324025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>159.4123668981159</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>295.2101385957912</v>
       </c>
       <c r="E5" t="n">
-        <v>82.60047971149493</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>142.3206164421347</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>45.21191633939031</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>283.4628353493692</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>76.27578641213523</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>22.42036703497521</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>180.1503404919595</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28387,10 +28387,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,43 +31677,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>198.5607970756955</v>
+        <v>370.9642309107751</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>432.1946015714842</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,16 +32555,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>434.178635838203</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>506.5895320981975</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>137.7376326175082</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,16 +33986,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P39" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>354.6246161155308</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>357.2600601150045</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>289.6528263814789</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>515.365777400248</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>241.2171229812699</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
         <v>360.385208115341</v>
@@ -35018,19 +35018,19 @@
         <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>647.4981915352465</v>
+        <v>491.78457892785</v>
       </c>
       <c r="M6" t="n">
         <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>557.1022482807655</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
         <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131504</v>
+        <v>570.4594634530876</v>
       </c>
       <c r="Q6" t="n">
         <v>118.0296862297623</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.1266691917136</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>570.7518035997557</v>
       </c>
       <c r="N9" t="n">
-        <v>647.4981915352465</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P9" t="n">
-        <v>508.7838429764259</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>55.96455263125101</v>
+        <v>228.3679864663306</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>290.0605676494659</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>291.5823913937585</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295167</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>368.0351523183234</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>6.39592053417488</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,16 +37634,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P39" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
